--- a/biology/Botanique/Streptanthus_carinatus/Streptanthus_carinatus.xlsx
+++ b/biology/Botanique/Streptanthus_carinatus/Streptanthus_carinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Streptanthus carinatus est une espèce de plantes à fleurs de la famille des Brassicaceae, originaire du sud des États-Unis et du nord du Mexique.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée peu ramifiée, aux tiges lisses devenant bleutées à la base, mesure entre 30 et 60 cm de hauteur[1]. Les feuilles, de couleur vert-bleu, sont beaucoup plus grandes à la base que plus haut sur la tige. Elles sont sagittées, les pointes de la base encerclant la tige, et celles situées à la base de la tige sont pennatifides.
-Appareil reproducteur
-La floraison a lieu entre janvier et avril. L'inflorescence est une grappe lache de fleurs en forme de fiasque, située sur la moitié supérieure de la tige. Les fleurs de la sous-espèce arizonicus sont jaune pâle ou crème, parfois rayées de mauve, et celles de la sous-espèce carinatus sont de couleur violette. Chaque fleur mesure environ 1,3 cm de longueur[1]. Le calice est constitué de 4 sépales soudés crème ou jaune pâle, et les 4 pétales fripés de la corolle dépassent du calice.
-Le fruit est une capsule de 3 à 6,5 cm de longueur, mince et aplatie, au port érigé.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée peu ramifiée, aux tiges lisses devenant bleutées à la base, mesure entre 30 et 60 cm de hauteur. Les feuilles, de couleur vert-bleu, sont beaucoup plus grandes à la base que plus haut sur la tige. Elles sont sagittées, les pointes de la base encerclant la tige, et celles situées à la base de la tige sont pennatifides.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre janvier et avril. L'inflorescence est une grappe lache de fleurs en forme de fiasque, située sur la moitié supérieure de la tige. Les fleurs de la sous-espèce arizonicus sont jaune pâle ou crème, parfois rayées de mauve, et celles de la sous-espèce carinatus sont de couleur violette. Chaque fleur mesure environ 1,3 cm de longueur. Le calice est constitué de 4 sépales soudés crème ou jaune pâle, et les 4 pétales fripés de la corolle dépassent du calice.
+Le fruit est une capsule de 3 à 6,5 cm de longueur, mince et aplatie, au port érigé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Streptanthus_carinatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Streptanthus_carinatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Streptanthus carinatus pousse dans les zones désertiques du sud-ouest des États-Unis et du nord du Mexique. La sous-espèce carinatus se trouve principalement de l'ouest du Texas jusqu'au sud de l'Arizona, généralement sur sol contenant du calcaire, alors que la sous-espèce arizonicus se trouve sur sol plus siliceux, de l'Arizona jusqu'au nord du Mexique.
 </t>
